--- a/biology/Botanique/Parc_du_château_de_Montières/Parc_du_château_de_Montières.xlsx
+++ b/biology/Botanique/Parc_du_château_de_Montières/Parc_du_château_de_Montières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_ch%C3%A2teau_de_Monti%C3%A8res</t>
+          <t>Parc_du_château_de_Montières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du château de Montières est situé dans le quartier de Montières, à l'ouest de la ville d'Amiens, dans le département de la Somme. Ouvert au public, il entoure le château de Montières.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_ch%C3%A2teau_de_Monti%C3%A8res</t>
+          <t>Parc_du_château_de_Montières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le parc</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc arboré de 5 ha a été conçu au début du XVIIIe siècle. Devant le château comme à l'arrière, il a l'aspect d'une large pelouse arborée sur les franges puis il s'allonge le long du cours d'eau jusqu'à côtoyer le parc du Grand Marais. 
 On peut y voir des essences communes comme :
@@ -522,7 +536,7 @@
 mais aussi des essences rares comme :
 un savonnier de Chine, labellisé « arbre remarquable » en 2018 ;
 des cyprès chauves de Louisiane.
-Le jardin d'agrément est pré-inventorié[1].
+Le jardin d'agrément est pré-inventorié.
 			Pelouse à l'arrière du château.
 			Savonnier .
 			Cyprès chauve de Louisiane.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_du_ch%C3%A2teau_de_Monti%C3%A8res</t>
+          <t>Parc_du_château_de_Montières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,6 +570,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
